--- a/login.xlsx
+++ b/login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FBBA6C2B-C3B0-E346-BF3C-5C26CF501097}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53E295-D331-6440-B47B-772B99DFD1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="440" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Email</t>
   </si>
@@ -23,28 +23,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>quanghuy276@gmail.com</t>
   </si>
   <si>
     <t>mua000</t>
-  </si>
-  <si>
-    <t>Trần Văn Nam</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>42/45D Hoàng Diệu, Phường 12</t>
-  </si>
-  <si>
-    <t>0948121514</t>
-  </si>
-  <si>
-    <t>1213as149@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -89,10 +74,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -432,20 +419,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,33 +444,154 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="C30" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{659457C4-C0A7-7445-855B-238BF89BD271}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/login.xlsx
+++ b/login.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53E295-D331-6440-B47B-772B99DFD1A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE722035-A053-1642-9B1E-725CEECACFC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
   <si>
     <t>Email</t>
   </si>
@@ -26,17 +26,314 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>quanghuy276@gmail.com</t>
-  </si>
-  <si>
     <t>mua000</t>
+  </si>
+  <si>
+    <t>01658683164</t>
+  </si>
+  <si>
+    <t>01626989950</t>
+  </si>
+  <si>
+    <t>01683440734</t>
+  </si>
+  <si>
+    <t>01653623432</t>
+  </si>
+  <si>
+    <t>01683181337</t>
+  </si>
+  <si>
+    <t>01664691664</t>
+  </si>
+  <si>
+    <t>01634927638</t>
+  </si>
+  <si>
+    <t>01672814239</t>
+  </si>
+  <si>
+    <t>01659804770</t>
+  </si>
+  <si>
+    <t>01676213281</t>
+  </si>
+  <si>
+    <t>01688700527</t>
+  </si>
+  <si>
+    <t>01689835071</t>
+  </si>
+  <si>
+    <t>01687115739</t>
+  </si>
+  <si>
+    <t>01675859523</t>
+  </si>
+  <si>
+    <t>01639796093</t>
+  </si>
+  <si>
+    <t>01656791643</t>
+  </si>
+  <si>
+    <t>01653744871</t>
+  </si>
+  <si>
+    <t>01693244854</t>
+  </si>
+  <si>
+    <t>01679200842</t>
+  </si>
+  <si>
+    <t>01654586631</t>
+  </si>
+  <si>
+    <t>01674179701</t>
+  </si>
+  <si>
+    <t>01636917174</t>
+  </si>
+  <si>
+    <t>01634439862</t>
+  </si>
+  <si>
+    <t>01652812601</t>
+  </si>
+  <si>
+    <t>01639692830</t>
+  </si>
+  <si>
+    <t>01683884704</t>
+  </si>
+  <si>
+    <t>01652122867</t>
+  </si>
+  <si>
+    <t>01677943504</t>
+  </si>
+  <si>
+    <t>01639719942</t>
+  </si>
+  <si>
+    <t>01632587741</t>
+  </si>
+  <si>
+    <t>01676420457</t>
+  </si>
+  <si>
+    <t>01698697821</t>
+  </si>
+  <si>
+    <t>01639820710</t>
+  </si>
+  <si>
+    <t>01638973947</t>
+  </si>
+  <si>
+    <t>01629463623</t>
+  </si>
+  <si>
+    <t>01682045760</t>
+  </si>
+  <si>
+    <t>01656442601</t>
+  </si>
+  <si>
+    <t>01652577563</t>
+  </si>
+  <si>
+    <t>01688541072</t>
+  </si>
+  <si>
+    <t>01637241049</t>
+  </si>
+  <si>
+    <t>01698615526</t>
+  </si>
+  <si>
+    <t>01698638758</t>
+  </si>
+  <si>
+    <t>0964307727</t>
+  </si>
+  <si>
+    <t>01655879963</t>
+  </si>
+  <si>
+    <t>0971034147</t>
+  </si>
+  <si>
+    <t>01698842104</t>
+  </si>
+  <si>
+    <t>01678120788</t>
+  </si>
+  <si>
+    <t>01697450709</t>
+  </si>
+  <si>
+    <t>01698955109</t>
+  </si>
+  <si>
+    <t>0983029454</t>
+  </si>
+  <si>
+    <t>01659983674</t>
+  </si>
+  <si>
+    <t>01635609594</t>
+  </si>
+  <si>
+    <t>01635823896</t>
+  </si>
+  <si>
+    <t>0985349384</t>
+  </si>
+  <si>
+    <t>0988514861</t>
+  </si>
+  <si>
+    <t>01665623579</t>
+  </si>
+  <si>
+    <t>01635827420</t>
+  </si>
+  <si>
+    <t>01635823581</t>
+  </si>
+  <si>
+    <t>01636747149</t>
+  </si>
+  <si>
+    <t>01635861620</t>
+  </si>
+  <si>
+    <t>01636832031</t>
+  </si>
+  <si>
+    <t>01663889271</t>
+  </si>
+  <si>
+    <t>01638933711</t>
+  </si>
+  <si>
+    <t>01669748931</t>
+  </si>
+  <si>
+    <t>01692086736</t>
+  </si>
+  <si>
+    <t>01698627880</t>
+  </si>
+  <si>
+    <t>01672573624</t>
+  </si>
+  <si>
+    <t>0984708746</t>
+  </si>
+  <si>
+    <t>01697488171</t>
+  </si>
+  <si>
+    <t>01684465314</t>
+  </si>
+  <si>
+    <t>01696728471</t>
+  </si>
+  <si>
+    <t>01634944880</t>
+  </si>
+  <si>
+    <t>01694485061</t>
+  </si>
+  <si>
+    <t>01633042119</t>
+  </si>
+  <si>
+    <t>01654118076</t>
+  </si>
+  <si>
+    <t>01637150783</t>
+  </si>
+  <si>
+    <t>01687457894</t>
+  </si>
+  <si>
+    <t>01688360755</t>
+  </si>
+  <si>
+    <t>01686167481</t>
+  </si>
+  <si>
+    <t>01653725491</t>
+  </si>
+  <si>
+    <t>01653716198</t>
+  </si>
+  <si>
+    <t>01636308674</t>
+  </si>
+  <si>
+    <t>01636044659</t>
+  </si>
+  <si>
+    <t>01683602594</t>
+  </si>
+  <si>
+    <t>01667394275</t>
+  </si>
+  <si>
+    <t>0985935206</t>
+  </si>
+  <si>
+    <t>01638395283</t>
+  </si>
+  <si>
+    <t>01676600322</t>
+  </si>
+  <si>
+    <t>01653685762</t>
+  </si>
+  <si>
+    <t>01272168239</t>
+  </si>
+  <si>
+    <t>01296034581</t>
+  </si>
+  <si>
+    <t>01257355369</t>
+  </si>
+  <si>
+    <t>01292349980</t>
+  </si>
+  <si>
+    <t>01256112684</t>
+  </si>
+  <si>
+    <t>01256118853</t>
+  </si>
+  <si>
+    <t>01292927558</t>
+  </si>
+  <si>
+    <t>01296636536</t>
+  </si>
+  <si>
+    <t>01296540369</t>
+  </si>
+  <si>
+    <t>01256120649</t>
+  </si>
+  <si>
+    <t>01254163810</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,21 +341,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,19 +383,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -446,154 +758,859 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
       <c r="C30" s="1"/>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{659457C4-C0A7-7445-855B-238BF89BD271}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>